--- a/Data/g2.4.xlsx
+++ b/Data/g2.4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade último ano</t>
+          <t>Período</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade último ano/primeiro</t>
+          <t>Categoria</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Valor último ano</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Valor último ano/primeiro</t>
+          <t>Valor</t>
         </is>
       </c>
     </row>
@@ -466,17 +461,18 @@
           <t>Banana (cacho)</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-3.255571030640668</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-51.45537773429311</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>11.573419809233</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-46.85534874792808</v>
+        <v>10.4984703976966</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +481,18 @@
           <t>Goiaba</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1.756198347107438</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-33.5357624831309</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>26.03401709402077</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-6.580651099176507</v>
+        <v>-23.79018612521151</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +501,18 @@
           <t>Limão</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>5.360653258732799</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22.45166959578207</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>-18.22640853962028</v>
-      </c>
-      <c r="E4" t="n">
-        <v>51.2048098676548</v>
+        <v>-16.91424470757086</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +521,18 @@
           <t>Mamão</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-26.53694887186917</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-79.36867806069063</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>-2.304397442521011</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-75.45189639925864</v>
+        <v>-28.79684418145957</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +541,18 @@
           <t>Manga</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-2.301182066167728</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-43.01799045404479</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>33.19098105856546</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.02427704946965874</v>
+        <v>13.63831615120275</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,378 @@
           <t>Tangerina</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1.98841396586817</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-1.093228059520194</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>19.65625309275359</v>
-      </c>
-      <c r="E7" t="n">
-        <v>49.13585086404906</v>
+        <v>-25.75990175007676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Banana (cacho)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>41.96098820955503</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Goiaba</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-11.07117611747172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-37.17054411142673</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mamão</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-20.09501178334373</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>29.37939751281824</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tangerina</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Variação do último ano</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-15.30520330527061</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Banana (cacho)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-46.35893493605423</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Goiaba</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-49.34772829509672</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.739894551845343</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mamão</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-85.30984769212883</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-35.24660384285889</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tangerina</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Quantidade 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-26.57151533556028</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Banana (cacho)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-24.55532790203706</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Goiaba</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>-16.92327174378207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.998840682800751</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mamão</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>-80.38484071041505</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>29.41080701315597</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Tangerina</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Valor 2024 / 2010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Variação desde 2010</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>26.31030568826115</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g2.4.xlsx
+++ b/Data/g2.4.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2023</t>
+          <t>Quantidade 2024/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2023</t>
+          <t>Quantidade 2024/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2023</t>
+          <t>Quantidade 2024/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2023</t>
+          <t>Quantidade 2024/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2023</t>
+          <t>Quantidade 2024/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2023</t>
+          <t>Quantidade 2024/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2023</t>
+          <t>Valor 2024/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2023</t>
+          <t>Valor 2024/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2023</t>
+          <t>Valor 2024/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2023</t>
+          <t>Valor 2024/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2023</t>
+          <t>Valor 2024/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2023</t>
+          <t>Valor 2024/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2010</t>
+          <t>Quantidade 2024/2010</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2010</t>
+          <t>Quantidade 2024/2010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2010</t>
+          <t>Quantidade 2024/2010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2010</t>
+          <t>Quantidade 2024/2010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2010</t>
+          <t>Quantidade 2024/2010</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Quantidade 2024 / 2010</t>
+          <t>Quantidade 2024/2010</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2010</t>
+          <t>Valor 2024/2010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2010</t>
+          <t>Valor 2024/2010</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2010</t>
+          <t>Valor 2024/2010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2010</t>
+          <t>Valor 2024/2010</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2010</t>
+          <t>Valor 2024/2010</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Valor 2024 / 2010</t>
+          <t>Valor 2024/2010</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
